--- a/SeleniumWebDriver/testdata/data.xlsx
+++ b/SeleniumWebDriver/testdata/data.xlsx
@@ -147,8 +147,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -354,95 +358,95 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.92"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>43675</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="5" t="n">
         <v>350</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>43675</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>43675</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="5" t="n">
         <v>250</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>43675</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="5" t="n">
         <v>150</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>43675</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="5" t="n">
         <v>300</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
     </row>

--- a/SeleniumWebDriver/testdata/data.xlsx
+++ b/SeleniumWebDriver/testdata/data.xlsx
@@ -358,7 +358,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
